--- a/gd/音乐音效相关/UI音效内容设计.xlsx
+++ b/gd/音乐音效相关/UI音效内容设计.xlsx
@@ -17,38 +17,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="104">
   <si>
     <t>UI音效由通用音效与特殊音效组成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>通用音效</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>通用按钮音效为 ConfirmNormal</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>通用页签</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>通用页签音效为 TabNormal</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>通用页签包括下列样式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>通用按钮包括下列样式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>图标音效</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -64,7 +64,7 @@
       </rPr>
       <t>ConfirmNormal</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -80,7 +80,7 @@
       </rPr>
       <t>D入口音效</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -96,19 +96,19 @@
       </rPr>
       <t>D功能入口音效为 ConfirmNormal</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>通用关闭、取消类按钮</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>通用按钮包括下列样式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>通用勾选框</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -124,47 +124,31 @@
       </rPr>
       <t>onfirmWeak</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>通用勾选框包括下列样式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>通用关闭、取消类按钮音效为 ConfirmCancel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>通用翻页按钮</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>通用帆爷按钮音效为P</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ageturn</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>通用翻页按钮包括下列样式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>通用按钮</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>特殊音效</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -180,7 +164,7 @@
       </rPr>
       <t>I图标展开按钮</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -196,7 +180,7 @@
       </rPr>
       <t>RollingNormal</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -212,35 +196,31 @@
       </rPr>
       <t>ips弹出</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>包括装备道具tips、技能tips</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>该类窗口弹出时音效为 ConfirmOpen</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>tips弹出音效为TipsOpen</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>奖励类弹出窗口音效</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>非奖励类弹出窗口音效</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>包括二级确认框、宠物信息等弹出窗口</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>包括各类奖励弹出框（任务、签到等）、扫荡界面、抽蛋、开宝箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -256,11 +236,11 @@
       </rPr>
       <t>CongratWindow</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>通用下拉列表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -276,59 +256,35 @@
       </rPr>
       <t>ConfirmWeak</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>通用下拉列表包括下列样式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>角色升级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>弹出升级界面时播放的音效为 Uplevel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用活力</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用活力药时播放的音效为 normal（暂定）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>合成宝石时播放的音效为 normal（暂定）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>材料合成时播放的音效为 normal（暂定）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>合成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>分解</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备分解时播放的音效为 normal（暂定）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物分解时播放的音效为 normal（暂定）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>音效名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>是否有资源</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ConfirmWeak</t>
@@ -392,148 +348,210 @@
   </si>
   <si>
     <t>主场景</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>副本章节场景</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>阵容选择界面</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>对局中</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>每个副本单独配置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>结算（胜利）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>结算（失败）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>抽蛋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻石抽蛋时播放的音效为 normal（暂定）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>获得金币</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>获得金币时播放的音效为Confirmcash</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>宠物合成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币抽蛋时播放的音效为 normal（暂定）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>碎片合成宠物时播放的音效为 normal（暂定）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>宠物相关</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物升级时播放的音效为 normal（暂定）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物技能升级时播放的音效为 normal（暂定）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物进阶时播放的音效为 normal（暂定）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物装备强化成功时播放的音效为 normal（暂定）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物装备强化失败时播放的音效为 normal（暂定）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物装备宝石镶嵌时播放的音效为 normal（暂定）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物获得经验时播放的音效为 normal（暂定）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>结算相关</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>结算的星级动画中每出现一个星时播放的音效为Starsound</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>阵容选择相关</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>上阵/下阵宠物时播放的音效为normal（暂定）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>公会相关</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>成功创建公会时播放的音效为normal（暂定）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>领取公会贡献值宝箱时播放的音效为normal（暂定）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>完成公会许愿时播放的音效为normal（暂定）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>公会科技升级成功时播放的音效为normal（暂定）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>邮箱相关</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>收取邮件时播放的音效为normal（暂定）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括各类奖励弹出框（任务、签到等）、扫荡界面、抽蛋、开宝箱、章节奖励</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用活力药</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>VictoryMusic</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用活力药时播放的音效为 Normal（暂定）</t>
+  </si>
+  <si>
+    <t>合成宝石时播放的音效为 Normal（暂定）</t>
+  </si>
+  <si>
+    <t>合成材料时播放的音效为 Normal（暂定）</t>
+  </si>
+  <si>
+    <t>分解装备时播放的音效为 Normal（暂定）</t>
+  </si>
+  <si>
+    <t>分解宠物时播放的音效为 Normal（暂定）</t>
+  </si>
+  <si>
+    <t>金币抽蛋时播放的音效为 Normal（暂定）</t>
+  </si>
+  <si>
+    <t>钻石抽蛋时播放的音效为 Normal（暂定）</t>
+  </si>
+  <si>
+    <t>碎片合成宠物时播放的音效为 Normal（暂定）</t>
+  </si>
+  <si>
+    <t>宠物获得经验时播放的音效为 Normal（暂定）</t>
+  </si>
+  <si>
+    <t>宠物升级时播放的音效为 Normal（暂定）</t>
+  </si>
+  <si>
+    <t>宠物技能升级时播放的音效为 Normal（暂定）</t>
+  </si>
+  <si>
+    <t>宠物装备强化成功时播放的音效为 Normal（暂定）</t>
+  </si>
+  <si>
+    <t>宠物装备强化失败时播放的音效为 Normal（暂定）</t>
+  </si>
+  <si>
+    <t>宠物进阶时播放的音效为 Normal（暂定）</t>
+  </si>
+  <si>
+    <t>宠物装备宝石镶嵌时播放的音效为 Normal（暂定）</t>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>通用翻页按钮音效为P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ageturn</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -577,8 +595,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -758,14 +779,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:colOff>200004</xdr:colOff>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>137042</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>542785</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:colOff>638014</xdr:colOff>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>63729</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -789,7 +810,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2162175" y="6004442"/>
+          <a:off x="2257404" y="14805542"/>
           <a:ext cx="1123810" cy="345787"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -802,14 +823,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:colOff>214290</xdr:colOff>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>561838</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:colOff>623728</xdr:colOff>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>190446</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -828,7 +849,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2209800" y="5210175"/>
+          <a:off x="2271690" y="14011275"/>
           <a:ext cx="1095238" cy="428571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -842,13 +863,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>114119</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>123764</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -866,7 +887,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2095500" y="6762750"/>
+          <a:off x="2095500" y="15563850"/>
           <a:ext cx="1447619" cy="485714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -994,13 +1015,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>95187</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>104713</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1032,13 +1053,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>676211</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>57049</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1070,13 +1091,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>9352</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>104723</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1107,15 +1128,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>489128</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>307437</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>180496</xdr:rowOff>
+      <xdr:colOff>348890</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>37621</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1132,7 +1153,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2505075" y="6438900"/>
+          <a:off x="2546528" y="16144875"/>
           <a:ext cx="545562" cy="2333146"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1146,13 +1167,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>333287</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>161838</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1184,13 +1205,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>41941</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>85202</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>56837</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1222,13 +1243,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>19336</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1260,13 +1281,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>9369</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>104621</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1298,13 +1319,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>263525</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>133351</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1622,10 +1643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D126"/>
+  <dimension ref="B2:D125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L89" sqref="L89"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1645,7 +1666,7 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
@@ -1699,17 +1720,22 @@
     <row r="30" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C31" s="2"/>
-    </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C34" s="2"/>
+      <c r="D34" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C35" s="2"/>
@@ -1724,124 +1750,86 @@
       <c r="C38" s="2"/>
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C39" s="2"/>
+      <c r="C39" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C40" s="2"/>
+      <c r="D40" s="5" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C41" s="2"/>
+      <c r="D41" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C44" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C45" s="2"/>
-      <c r="D45" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="D45" s="2"/>
     </row>
     <row r="46" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C46" s="2"/>
-      <c r="D46" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="D46" s="2"/>
     </row>
     <row r="47" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
     </row>
     <row r="48" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C49" s="2"/>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C50" s="2"/>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C51" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="D49" s="2"/>
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C52" s="2"/>
-      <c r="D52" s="2" t="s">
-        <v>18</v>
+      <c r="C52" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C53" s="2"/>
-      <c r="D53" s="2" t="s">
-        <v>19</v>
+      <c r="D53" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-    </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-    </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-    </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-    </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-    </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-    </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-    </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-    </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C64" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D65" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D66" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="78" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C78" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
     <row r="79" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C79" s="2" t="s">
-        <v>33</v>
+      <c r="D79" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="80" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D80" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D81" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="D81" s="2"/>
     </row>
     <row r="82" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D82" s="2"/>
@@ -1858,94 +1846,91 @@
     <row r="86" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D86" s="2"/>
     </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D87" s="2"/>
+    <row r="89" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C89" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="90" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C90" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D91" s="2" t="s">
+      <c r="D90" s="2" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="93" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="94" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C94" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D95" s="2" t="s">
+      <c r="D94" s="2" t="s">
         <v>10</v>
       </c>
     </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B97" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B98" s="2" t="s">
+      <c r="C98" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C99" s="2" t="s">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D104" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D105" s="2" t="s">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C106" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C107" s="2" t="s">
+      <c r="D107" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D108" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D116" s="2" t="s">
-        <v>27</v>
+    <row r="115" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D115" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="117" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C117" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="118" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C118" s="2" t="s">
+      <c r="D118" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="119" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D119" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D120" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="121" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C121" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="122" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C122" s="2" t="s">
-        <v>28</v>
+      <c r="D122" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="123" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D123" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D124" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C126" s="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="125" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C125" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1955,8 +1940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C48"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1966,186 +1951,186 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
-        <v>38</v>
+      <c r="B5" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C6" s="2" t="s">
-        <v>39</v>
+      <c r="C6" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C9" s="2" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C10" s="2" t="s">
-        <v>41</v>
+      <c r="C10" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C13" s="2" t="s">
-        <v>44</v>
+      <c r="C13" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C14" s="2" t="s">
-        <v>45</v>
+      <c r="C14" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C17" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C18" s="2" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C21" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C24" s="2" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C27" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C28" s="2" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C29" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C30" s="2" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C31" s="2" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C32" s="2" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C33" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" s="2" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C36" s="2" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38" s="2" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C39" s="2" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C42" s="2" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C43" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C44" s="2" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C45" s="2" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B47" s="2" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C48" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2155,7 +2140,7 @@
   <dimension ref="B1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2165,76 +2150,76 @@
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C8" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C10" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C12" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2246,166 +2231,174 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>65</v>
+      <c r="A21" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/gd/音乐音效相关/UI音效内容设计.xlsx
+++ b/gd/音乐音效相关/UI音效内容设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="通用音效" sheetId="1" r:id="rId1"/>
@@ -12,43 +12,43 @@
     <sheet name="背景音乐" sheetId="5" r:id="rId3"/>
     <sheet name="音效资源" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="135">
   <si>
     <t>UI音效由通用音效与特殊音效组成</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>通用音效</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>通用按钮音效为 ConfirmNormal</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>通用页签</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>通用页签音效为 TabNormal</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>通用页签包括下列样式</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>通用按钮包括下列样式</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>图标音效</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -64,7 +64,7 @@
       </rPr>
       <t>ConfirmNormal</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -80,35 +80,19 @@
       </rPr>
       <t>D入口音效</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>主场景中3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>D功能入口音效为 ConfirmNormal</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>通用关闭、取消类按钮</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>通用按钮包括下列样式</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>通用勾选框</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -124,31 +108,31 @@
       </rPr>
       <t>onfirmWeak</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>通用勾选框包括下列样式</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>通用关闭、取消类按钮音效为 ConfirmCancel</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>通用翻页按钮</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>通用翻页按钮包括下列样式</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>通用按钮</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>特殊音效</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -164,7 +148,7 @@
       </rPr>
       <t>I图标展开按钮</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -180,7 +164,7 @@
       </rPr>
       <t>RollingNormal</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -196,31 +180,31 @@
       </rPr>
       <t>ips弹出</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>包括装备道具tips、技能tips</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>该类窗口弹出时音效为 ConfirmOpen</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>tips弹出音效为TipsOpen</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>奖励类弹出窗口音效</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>非奖励类弹出窗口音效</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>包括二级确认框、宠物信息等弹出窗口</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -236,11 +220,11 @@
       </rPr>
       <t>CongratWindow</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>通用下拉列表</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -256,35 +240,35 @@
       </rPr>
       <t>ConfirmWeak</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>通用下拉列表包括下列样式</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>角色升级</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>弹出升级界面时播放的音效为 Uplevel</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>合成</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>分解</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>音效名称</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>是否有资源</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ConfirmWeak</t>
@@ -348,107 +332,83 @@
   </si>
   <si>
     <t>主场景</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>副本章节场景</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>阵容选择界面</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>对局中</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>每个副本单独配置</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>结算（胜利）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>结算（失败）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>抽蛋</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>获得金币</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>获得金币时播放的音效为Confirmcash</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>宠物合成</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>宠物相关</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>结算相关</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>结算的星级动画中每出现一个星时播放的音效为Starsound</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>阵容选择相关</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>上阵/下阵宠物时播放的音效为normal（暂定）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>公会相关</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功创建公会时播放的音效为normal（暂定）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>领取公会贡献值宝箱时播放的音效为normal（暂定）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成公会许愿时播放的音效为normal（暂定）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>公会科技升级成功时播放的音效为normal（暂定）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>邮箱相关</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>收取邮件时播放的音效为normal（暂定）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>包括各类奖励弹出框（任务、签到等）、扫荡界面、抽蛋、开宝箱、章节奖励</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>使用活力药</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>VictoryMusic</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>使用活力药时播放的音效为 Normal（暂定）</t>
@@ -472,9 +432,6 @@
     <t>钻石抽蛋时播放的音效为 Normal（暂定）</t>
   </si>
   <si>
-    <t>碎片合成宠物时播放的音效为 Normal（暂定）</t>
-  </si>
-  <si>
     <t>宠物获得经验时播放的音效为 Normal（暂定）</t>
   </si>
   <si>
@@ -497,11 +454,11 @@
   </si>
   <si>
     <t>Normal</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -517,14 +474,296 @@
       </rPr>
       <t>ageturn</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果点击按钮是打开一个界面，是不是打开界面没有音效，只有按钮音效</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果点击按钮是出现弹窗，就等于会有两个音效</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>点列表选项还有音效么</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>过程播放的音效还是成功的音效</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>有些地方不太需要这个音效，例如签到、副本结算等等</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>一键收取是播一个还是播一群？</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个音效吧</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到应该还是需要吧，结算好像不需要</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>播放一个，有逻辑只播放一个吧</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对，除非有界面特殊需求音效</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到界面</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>上阵/下阵宠物时播放的音效为 Normal（暂定）</t>
+  </si>
+  <si>
+    <t>成功创建公会时播放的音效为 Normal（暂定）</t>
+  </si>
+  <si>
+    <t>领取公会贡献值宝箱时播放的音效为 Normal（暂定）</t>
+  </si>
+  <si>
+    <t>完成公会许愿时播放的音效为 Normal（暂定）</t>
+  </si>
+  <si>
+    <t>公会科技升级成功时播放的音效为 Normal（暂定）</t>
+  </si>
+  <si>
+    <t>收取邮件时播放的音效为 Normal（暂定）</t>
+  </si>
+  <si>
+    <t>碎片合成宠物弹出界面时播放的音效为 Normal（暂定）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击3D异界副本入口时播放音效为  Normal（暂定）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击3D现实副本入口时播放音效为  Normal（暂定）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击3D公会入口时播放音效为  Normal（暂定）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击3DPVP入口时播放音效为  Normal（暂定）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击3D大冒险入口时播放音效为  Normal（暂定）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击3D试炼入口时播放音效为  Normal（暂定）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>点击3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>D通天塔入口时播放音效为 Normal（暂定）</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>点击3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>D抽蛋入口时播放音效为 Normal（暂定）</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>其他3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>D功能入口音效为 ConfirmNormal</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他界面呢，是没写还是待补充，如：任务，PVP，签到等</t>
+    <rPh sb="0" eb="1">
+      <t>qi't</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ne</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>mei'xie</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>hai'shi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>dai</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>bu'chong</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ru</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ren'wu</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>qian'dao</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>deng</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>章节场景和阵容选择没切场景吧，能分两个么？</t>
+    <rPh sb="0" eb="1">
+      <t>zhang'jie</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chang'jing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>he</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhen'rong</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xua'ze</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>mei</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>qie</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>chang'jing</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>b</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>neng</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>fen</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>liang'g</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>me</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到成功时播放的音效为 Normal（暂定）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>匹配成功时播放的音效为  Normal（暂定）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>PVP</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>大冒险</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">派遣成功时播放的音效为 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Normal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（暂定）</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务没有特殊、签到、pvp已补充</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>各个界面可能会有界面音效，等待特效动画均确定后补充</t>
+  </si>
+  <si>
+    <t xml:space="preserve">是的 </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>有的</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表项音效为 ConfirmNormal</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -568,19 +807,46 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -595,18 +861,70 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -631,8 +949,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>77480</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>171393</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>380943</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1167,13 +1485,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>333287</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>161838</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1205,13 +1523,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>41941</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>85202</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>56837</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1243,13 +1561,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>19336</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1643,57 +1961,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D125"/>
+  <dimension ref="A2:F135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="36.125" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="8" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C20" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.3">
@@ -1722,19 +2061,19 @@
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C32" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.3">
@@ -1751,19 +2090,19 @@
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C39" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C40" s="2"/>
       <c r="D40" s="5" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.3">
@@ -1815,122 +2154,183 @@
     </row>
     <row r="78" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C78" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D79" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D80" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="D81" s="2"/>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="9" t="s">
+        <v>133</v>
+      </c>
       <c r="D82" s="2"/>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D83" s="2"/>
     </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D84" s="2"/>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D85" s="2"/>
     </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D86" s="2"/>
     </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C89" s="2" t="s">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D89" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="E89" s="18"/>
+      <c r="F89" s="18"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D90" s="14"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C91" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D90" s="2" t="s">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D92" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C93" s="2" t="s">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D94" s="2" t="s">
-        <v>10</v>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D96" s="10" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B97" s="2" t="s">
+      <c r="D97" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D98" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D99" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D100" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D101" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D102" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D103" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D105" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B107" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C108" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C98" s="2" t="s">
+    <row r="114" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D114" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D104" s="2" t="s">
+    <row r="116" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C116" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C106" s="2" t="s">
+    <row r="117" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D117" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D107" s="2" t="s">
+    <row r="125" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D125" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="127" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C127" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="128" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D128" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="129" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D129" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D115" s="2" t="s">
+    <row r="131" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C131" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C117" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D118" s="2" t="s">
+    <row r="132" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D132" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="133" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D133" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D119" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C121" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D122" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D123" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C125" s="2"/>
+    <row r="135" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C135" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="1">
+      <formula>LEN(TRIM(A1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1938,209 +2338,319 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C48"/>
+  <dimension ref="A2:G60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="36" style="8" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C3" s="2" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C13" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C6" s="4" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C18" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C24" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C27" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C9" s="2" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C28" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C10" s="4" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C29" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C13" s="4" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C30" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C14" s="4" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C31" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C17" s="2" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C32" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C18" s="2" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C33" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C21" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C24" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="2" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B35" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C27" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C28" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C29" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C30" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C31" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C32" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C33" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B35" s="2" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C36" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C36" s="2" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B38" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="2" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C39" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B41" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C39" s="2" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C42" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C43" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C44" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C45" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B47" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B41" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C42" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C43" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C44" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C45" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="C48" s="2" t="s">
-        <v>82</v>
-      </c>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B51" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B52" s="12"/>
+      <c r="C52" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+    </row>
+    <row r="54" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A54" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" s="12"/>
+      <c r="C55" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B57" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B58" s="12"/>
+      <c r="C58" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B60" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A53 A55:A1048576">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="2">
+      <formula>LEN(TRIM(A1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
+      <formula>LEN(TRIM(A54))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C12"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2148,68 +2658,78 @@
     <col min="1" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C2" s="2" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C4" s="2" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C6" s="2" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C8" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C10" s="2" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C12" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C12" s="2" t="s">
-        <v>58</v>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="A15">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(A15))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2219,7 +2739,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2231,174 +2751,174 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/gd/音乐音效相关/UI音效内容设计.xlsx
+++ b/gd/音乐音效相关/UI音效内容设计.xlsx
@@ -2,53 +2,59 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8025" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="通用音效" sheetId="1" r:id="rId1"/>
     <sheet name="事件音效" sheetId="3" r:id="rId2"/>
     <sheet name="背景音乐" sheetId="5" r:id="rId3"/>
     <sheet name="音效资源" sheetId="4" r:id="rId4"/>
+    <sheet name="任务拆分" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="158">
   <si>
     <t>UI音效由通用音效与特殊音效组成</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>通用音效</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>通用按钮音效为 ConfirmNormal</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>通用页签</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>通用页签音效为 TabNormal</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>通用页签包括下列样式</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>通用按钮包括下列样式</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>图标音效</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -64,7 +70,7 @@
       </rPr>
       <t>ConfirmNormal</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -80,19 +86,19 @@
       </rPr>
       <t>D入口音效</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>通用关闭、取消类按钮</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>通用按钮包括下列样式</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>通用勾选框</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -108,31 +114,31 @@
       </rPr>
       <t>onfirmWeak</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>通用勾选框包括下列样式</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>通用关闭、取消类按钮音效为 ConfirmCancel</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>通用翻页按钮</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>通用翻页按钮包括下列样式</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>通用按钮</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>特殊音效</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -148,7 +154,7 @@
       </rPr>
       <t>I图标展开按钮</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -164,7 +170,7 @@
       </rPr>
       <t>RollingNormal</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -180,31 +186,31 @@
       </rPr>
       <t>ips弹出</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>包括装备道具tips、技能tips</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>该类窗口弹出时音效为 ConfirmOpen</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>tips弹出音效为TipsOpen</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>奖励类弹出窗口音效</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>非奖励类弹出窗口音效</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>包括二级确认框、宠物信息等弹出窗口</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -220,11 +226,11 @@
       </rPr>
       <t>CongratWindow</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>通用下拉列表</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -240,35 +246,31 @@
       </rPr>
       <t>ConfirmWeak</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>通用下拉列表包括下列样式</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>角色升级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出升级界面时播放的音效为 Uplevel</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>合成</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>分解</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>音效名称</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>是否有资源</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ConfirmWeak</t>
@@ -332,83 +334,83 @@
   </si>
   <si>
     <t>主场景</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>副本章节场景</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>阵容选择界面</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>对局中</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>每个副本单独配置</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>结算（胜利）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>结算（失败）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>抽蛋</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>获得金币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>获得金币时播放的音效为Confirmcash</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>宠物合成</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>宠物相关</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>结算相关</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>结算的星级动画中每出现一个星时播放的音效为Starsound</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>阵容选择相关</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>公会相关</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>邮箱相关</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>包括各类奖励弹出框（任务、签到等）、扫荡界面、抽蛋、开宝箱、章节奖励</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>使用活力药</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>VictoryMusic</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>使用活力药时播放的音效为 Normal（暂定）</t>
@@ -454,11 +456,11 @@
   </si>
   <si>
     <t>Normal</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -474,51 +476,51 @@
       </rPr>
       <t>ageturn</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>如果点击按钮是打开一个界面，是不是打开界面没有音效，只有按钮音效</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>如果点击按钮是出现弹窗，就等于会有两个音效</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>点列表选项还有音效么</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>过程播放的音效还是成功的音效</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>有些地方不太需要这个音效，例如签到、副本结算等等</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>一键收取是播一个还是播一群？</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>一个音效吧</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>签到应该还是需要吧，结算好像不需要</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>播放一个，有逻辑只播放一个吧</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>对，除非有界面特殊需求音效</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>签到界面</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>上阵/下阵宠物时播放的音效为 Normal（暂定）</t>
@@ -540,31 +542,31 @@
   </si>
   <si>
     <t>碎片合成宠物弹出界面时播放的音效为 Normal（暂定）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>点击3D异界副本入口时播放音效为  Normal（暂定）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>点击3D现实副本入口时播放音效为  Normal（暂定）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>点击3D公会入口时播放音效为  Normal（暂定）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>点击3DPVP入口时播放音效为  Normal（暂定）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>点击3D大冒险入口时播放音效为  Normal（暂定）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>点击3D试炼入口时播放音效为  Normal（暂定）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -580,7 +582,7 @@
       </rPr>
       <t>D通天塔入口时播放音效为 Normal（暂定）</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -596,7 +598,7 @@
       </rPr>
       <t>D抽蛋入口时播放音效为 Normal（暂定）</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -612,7 +614,7 @@
       </rPr>
       <t>D功能入口音效为 ConfirmNormal</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>其他界面呢，是没写还是待补充，如：任务，PVP，签到等</t>
@@ -652,7 +654,7 @@
     <rPh sb="26" eb="27">
       <t>deng</t>
     </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>章节场景和阵容选择没切场景吧，能分两个么？</t>
@@ -695,23 +697,23 @@
     <rPh sb="19" eb="20">
       <t>me</t>
     </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>签到成功时播放的音效为 Normal（暂定）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>匹配成功时播放的音效为  Normal（暂定）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>PVP</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>大冒险</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -737,39 +739,142 @@
       </rPr>
       <t>（暂定）</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>任务没有特殊、签到、pvp已补充</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>各个界面可能会有界面音效，等待特效动画均确定后补充</t>
   </si>
   <si>
     <t xml:space="preserve">是的 </t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>有的</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>列表项音效为 ConfirmNormal</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>不要</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>走界面</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>走特效</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>各个口单做</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>不要</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有宠物界面</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>算按钮</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>不要</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>走特效</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>走按钮</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>有按钮走按钮</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>都一样</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>子3D可以不一样</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>能做到</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出升级界面后，播放升级特效时播放的音效为 Uplevel</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时不能预估时间..</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1D</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -834,6 +939,29 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -858,42 +986,49 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -926,6 +1061,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1961,16 +2101,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F135"/>
+  <dimension ref="A2:L135"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36.125" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
+    <col min="2" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -2000,22 +2140,22 @@
     </row>
     <row r="8" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.3">
@@ -2096,7 +2236,7 @@
     <row r="40" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C40" s="2"/>
       <c r="D40" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.3">
@@ -2167,98 +2307,104 @@
         <v>32</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D81" s="2"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D82" s="2"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D83" s="2"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D84" s="2"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D85" s="2"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D86" s="2"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D89" s="15" t="s">
         <v>133</v>
-      </c>
-      <c r="D82" s="2"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D83" s="2"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D84" s="2"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D85" s="2"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D86" s="2"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D89" s="15" t="s">
-        <v>134</v>
       </c>
       <c r="E89" s="18"/>
       <c r="F89" s="18"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D90" s="14"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C91" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D92" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="K95" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D96" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
+      </c>
+      <c r="K96" s="14" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D97" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D98" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D99" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D100" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D101" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D102" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D103" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D105" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.3">
@@ -2271,61 +2417,70 @@
         <v>20</v>
       </c>
     </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D114" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C116" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="K116" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="117" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D117" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D125" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C127" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="J127" s="14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="128" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D128" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:12" x14ac:dyDescent="0.3">
       <c r="D129" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C131" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="L131" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="132" spans="3:12" x14ac:dyDescent="0.3">
       <c r="D132" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="133" spans="3:12" x14ac:dyDescent="0.3">
       <c r="D133" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="135" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C135" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="notContainsBlanks" dxfId="3" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
@@ -2333,294 +2488,376 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G60"/>
+  <dimension ref="A2:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36" style="8" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="2"/>
+    <col min="2" max="7" width="8.875" style="2"/>
+    <col min="8" max="8" width="8.875" style="19"/>
+    <col min="9" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C3" s="2" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C3" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C6" s="4" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="H9" s="19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C10" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C14" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C18" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="C21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C10" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C13" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C14" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C18" s="2" t="s">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C24" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C27" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+      <c r="H27" s="19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C28" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C30" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C31" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C32" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H32" s="19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C33" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H33" s="19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C36" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H36" s="19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B38" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C39" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="H39" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C42" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H42" s="19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C43" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H43" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="I43" s="14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C44" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H44" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C45" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H45" s="19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B47" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
+      <c r="C48" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H48" s="19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C24" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C27" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C28" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C29" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C30" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C31" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C32" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C33" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B35" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C36" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C39" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B41" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C42" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C43" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C44" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C45" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B51" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B52" s="12"/>
       <c r="C52" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
       <c r="F52" s="12"/>
-    </row>
-    <row r="54" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="H52" s="19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B55" s="12"/>
       <c r="C55" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
       <c r="F55" s="12"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H55" s="19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B57" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
       <c r="F57" s="12"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B58" s="12"/>
       <c r="C58" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
       <c r="F58" s="12"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H58" s="19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B60" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C60" s="17"/>
       <c r="D60" s="17"/>
@@ -2629,7 +2866,7 @@
       <c r="G60" s="17"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="A1:A53 A55:A1048576">
     <cfRule type="notContainsBlanks" dxfId="2" priority="2">
       <formula>LEN(TRIM(A1))&gt;0</formula>
@@ -2642,15 +2879,20 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2660,77 +2902,87 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C8" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C10" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C12" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="14" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="A15">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A15))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2751,174 +3003,219 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>94</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C5" s="21" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C9" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/gd/音乐音效相关/UI音效内容设计.xlsx
+++ b/gd/音乐音效相关/UI音效内容设计.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8025" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8025"/>
   </bookViews>
   <sheets>
     <sheet name="通用音效" sheetId="1" r:id="rId1"/>
-    <sheet name="事件音效" sheetId="3" r:id="rId2"/>
+    <sheet name="特殊音效" sheetId="3" r:id="rId2"/>
     <sheet name="背景音乐" sheetId="5" r:id="rId3"/>
     <sheet name="音效资源" sheetId="4" r:id="rId4"/>
     <sheet name="任务拆分" sheetId="6" r:id="rId5"/>
@@ -23,38 +23,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="114">
   <si>
     <t>UI音效由通用音效与特殊音效组成</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>通用音效</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>通用按钮音效为 ConfirmNormal</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>通用页签</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>通用页签音效为 TabNormal</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>通用页签包括下列样式</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>通用按钮包括下列样式</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>图标音效</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -70,7 +70,7 @@
       </rPr>
       <t>ConfirmNormal</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -86,19 +86,19 @@
       </rPr>
       <t>D入口音效</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>通用关闭、取消类按钮</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>通用按钮包括下列样式</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>通用勾选框</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -114,31 +114,27 @@
       </rPr>
       <t>onfirmWeak</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>通用勾选框包括下列样式</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>通用关闭、取消类按钮音效为 ConfirmCancel</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>通用翻页按钮</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>通用翻页按钮包括下列样式</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>通用按钮</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊音效</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -154,7 +150,7 @@
       </rPr>
       <t>I图标展开按钮</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -170,67 +166,15 @@
       </rPr>
       <t>RollingNormal</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ips弹出</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>包括装备道具tips、技能tips</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>该类窗口弹出时音效为 ConfirmOpen</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>tips弹出音效为TipsOpen</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>奖励类弹出窗口音效</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>非奖励类弹出窗口音效</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>包括二级确认框、宠物信息等弹出窗口</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">该类窗口弹出时音效为 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>CongratWindow</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>通用下拉列表</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -246,31 +190,31 @@
       </rPr>
       <t>ConfirmWeak</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>通用下拉列表包括下列样式</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>角色升级</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>合成</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>分解</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>音效名称</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>是否有资源</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>ConfirmWeak</t>
@@ -334,92 +278,71 @@
   </si>
   <si>
     <t>主场景</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>副本章节场景</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>阵容选择界面</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>对局中</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>每个副本单独配置</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>结算（胜利）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>结算（失败）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>抽蛋</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>获得金币</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得金币时播放的音效为Confirmcash</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>宠物合成</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>宠物相关</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>结算相关</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>结算的星级动画中每出现一个星时播放的音效为Starsound</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>阵容选择相关</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>公会相关</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>邮箱相关</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>包括各类奖励弹出框（任务、签到等）、扫荡界面、抽蛋、开宝箱、章节奖励</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用活力药</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>VictoryMusic</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用活力药时播放的音效为 Normal（暂定）</t>
-  </si>
-  <si>
-    <t>合成宝石时播放的音效为 Normal（暂定）</t>
-  </si>
-  <si>
-    <t>合成材料时播放的音效为 Normal（暂定）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>分解装备时播放的音效为 Normal（暂定）</t>
@@ -428,39 +351,12 @@
     <t>分解宠物时播放的音效为 Normal（暂定）</t>
   </si>
   <si>
-    <t>金币抽蛋时播放的音效为 Normal（暂定）</t>
-  </si>
-  <si>
-    <t>钻石抽蛋时播放的音效为 Normal（暂定）</t>
-  </si>
-  <si>
-    <t>宠物获得经验时播放的音效为 Normal（暂定）</t>
-  </si>
-  <si>
-    <t>宠物升级时播放的音效为 Normal（暂定）</t>
-  </si>
-  <si>
-    <t>宠物技能升级时播放的音效为 Normal（暂定）</t>
-  </si>
-  <si>
-    <t>宠物装备强化成功时播放的音效为 Normal（暂定）</t>
-  </si>
-  <si>
-    <t>宠物装备强化失败时播放的音效为 Normal（暂定）</t>
-  </si>
-  <si>
-    <t>宠物进阶时播放的音效为 Normal（暂定）</t>
-  </si>
-  <si>
-    <t>宠物装备宝石镶嵌时播放的音效为 Normal（暂定）</t>
-  </si>
-  <si>
     <t>Normal</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -476,185 +372,50 @@
       </rPr>
       <t>ageturn</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>如果点击按钮是打开一个界面，是不是打开界面没有音效，只有按钮音效</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>如果点击按钮是出现弹窗，就等于会有两个音效</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>点列表选项还有音效么</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>过程播放的音效还是成功的音效</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>有些地方不太需要这个音效，例如签到、副本结算等等</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>一键收取是播一个还是播一群？</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>一个音效吧</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>签到应该还是需要吧，结算好像不需要</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>播放一个，有逻辑只播放一个吧</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>对，除非有界面特殊需求音效</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>签到界面</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>上阵/下阵宠物时播放的音效为 Normal（暂定）</t>
-  </si>
-  <si>
-    <t>成功创建公会时播放的音效为 Normal（暂定）</t>
-  </si>
-  <si>
-    <t>领取公会贡献值宝箱时播放的音效为 Normal（暂定）</t>
-  </si>
-  <si>
-    <t>完成公会许愿时播放的音效为 Normal（暂定）</t>
-  </si>
-  <si>
-    <t>公会科技升级成功时播放的音效为 Normal（暂定）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>收取邮件时播放的音效为 Normal（暂定）</t>
   </si>
   <si>
     <t>碎片合成宠物弹出界面时播放的音效为 Normal（暂定）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击3D异界副本入口时播放音效为  Normal（暂定）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击3D现实副本入口时播放音效为  Normal（暂定）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击3D公会入口时播放音效为  Normal（暂定）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击3DPVP入口时播放音效为  Normal（暂定）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击3D大冒险入口时播放音效为  Normal（暂定）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击3D试炼入口时播放音效为  Normal（暂定）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>点击3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>D通天塔入口时播放音效为 Normal（暂定）</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>点击3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>D抽蛋入口时播放音效为 Normal（暂定）</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>其他3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>D功能入口音效为 ConfirmNormal</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他界面呢，是没写还是待补充，如：任务，PVP，签到等</t>
-    <rPh sb="0" eb="1">
-      <t>qi't</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jie'mian</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ne</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>mei'xie</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>hai'shi</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>dai</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>bu'chong</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ru</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ren'wu</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>qian'dao</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>deng</t>
-    </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>章节场景和阵容选择没切场景吧，能分两个么？</t>
@@ -697,27 +458,55 @@
     <rPh sb="19" eb="20">
       <t>me</t>
     </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>签到成功时播放的音效为 Normal（暂定）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>匹配成功时播放的音效为  Normal（暂定）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>PVP</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>大冒险</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">是的 </t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>有的</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表项音效为 ConfirmNormal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>能做到</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出升级界面后，播放升级特效时播放的音效为 Uplevel</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时不能预估时间..</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1D</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击3D入口时（如通天塔模型）播放的音效为 Normal（暂定）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击3D入口子入口时（如不同难度的塔）播放的音效为 Normal（暂定）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">派遣成功时播放的音效为 </t>
+      <t xml:space="preserve">该类窗口弹出时如有对应特效则在特效播放时伴随音效，音效为 </t>
     </r>
     <r>
       <rPr>
@@ -727,7 +516,33 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> Normal</t>
+      <t>CongratWindow</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成材料播放特效时伴随音效为 Normal（暂定）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成宝石播放特效时伴随音效为 Normal（暂定）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币抽蛋时播放特效时伴随音效为 Normal（暂定）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石抽蛋时播放特效时伴随音效为 Normal（暂定）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他音效</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">钻石购买金币成功时播放的音效为 </t>
     </r>
     <r>
       <rPr>
@@ -737,137 +552,123 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>（暂定）</t>
+      <t>Confirmcash</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务没有特殊、签到、pvp已补充</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>各个界面可能会有界面音效，等待特效动画均确定后补充</t>
-  </si>
-  <si>
-    <t xml:space="preserve">是的 </t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>有的</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表项音效为 ConfirmNormal</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>不要</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>走界面</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>事件</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>走特效</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>各个口单做</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>事件</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>不要</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>只有宠物界面</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>算按钮</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>不要</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>走特效</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>走按钮</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>有按钮走按钮</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>都一样</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>子3D可以不一样</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>能做到</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出升级界面后，播放升级特效时播放的音效为 Uplevel</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>程序</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>策划</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂时不能预估时间..</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>1D</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">出售装备成功时播放的音效为 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Confirmcash</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物界面中宠物升级时播放的音效为 Normal（暂定）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物技能升级时播放特效时伴随音效 Normal（暂定）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物装备强化成功时播放特效时伴随音效为 Normal（暂定）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物进阶时播放特效时伴随音效为 Normal（暂定）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算的星级动画中每出现一个星时播放特效时伴随音效为Starsound</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击公会许愿按钮时播放的音效为 Normal（暂定）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击领取公会贡献值宝箱时播放的音效为 Normal（暂定）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到成功时播放特效时伴随音效为 Normal（暂定）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击宠物图标时（上阵/下阵）播放的音效为 Normal（暂定）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">全部收取邮件时播放的音效为 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Normal（暂定）</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>其他可点击的位置（有click事件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）如不属于上述内容则统一播放音效</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ConfirmNormal</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -988,56 +789,47 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -1625,13 +1417,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>333287</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>161838</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1662,82 +1454,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>41941</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>85202</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>56837</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="图片 16"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2076450" y="21625591"/>
-          <a:ext cx="2123552" cy="1272196"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>19336</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="图片 17"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4829176" y="21631275"/>
-          <a:ext cx="2048160" cy="1285875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>80</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -1756,7 +1472,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1794,7 +1510,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2101,10 +1817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L135"/>
+  <dimension ref="A2:K122"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2140,22 +1856,22 @@
     </row>
     <row r="8" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.3">
@@ -2236,7 +1952,7 @@
     <row r="40" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C40" s="2"/>
       <c r="D40" s="5" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.3">
@@ -2294,195 +2010,224 @@
     </row>
     <row r="78" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C78" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D79" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D80" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="D81" s="2"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="D82" s="2"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D83" s="2"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D84" s="2"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D85" s="2"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D86" s="2"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D89" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="E89" s="18"/>
-      <c r="F89" s="18"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D90" s="14"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D89" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D90" s="13"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C91" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D92" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K95" s="14" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D96" s="10" t="s">
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D96" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E96" s="16"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="16"/>
+      <c r="H96" s="16"/>
+      <c r="I96" s="16"/>
+      <c r="J96" s="16"/>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D97" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E97" s="16"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="16"/>
+      <c r="H97" s="16"/>
+      <c r="I97" s="16"/>
+      <c r="J97" s="16"/>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D98" s="20"/>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B99" s="20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C100" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D106" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C108" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D109" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D110" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E110" s="16"/>
+      <c r="F110" s="16"/>
+      <c r="G110" s="16"/>
+      <c r="H110" s="16"/>
+      <c r="I110" s="16"/>
+      <c r="J110" s="16"/>
+      <c r="K110" s="16"/>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C112" s="2"/>
+    </row>
+    <row r="113" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="I113" s="2"/>
+    </row>
+    <row r="114" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C114" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
+      <c r="J114" s="2"/>
+    </row>
+    <row r="115" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C115" s="2"/>
+      <c r="D115" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E115" s="12"/>
+      <c r="F115" s="12"/>
+      <c r="G115" s="12"/>
+      <c r="H115" s="12"/>
+      <c r="I115" s="12"/>
+      <c r="J115" s="2"/>
+    </row>
+    <row r="116" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
+      <c r="J116" s="2"/>
+    </row>
+    <row r="117" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="I117" s="2"/>
+    </row>
+    <row r="118" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C118" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+    </row>
+    <row r="119" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C119" s="2"/>
+      <c r="D119" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E119" s="12"/>
+      <c r="F119" s="12"/>
+      <c r="G119" s="12"/>
+      <c r="H119" s="12"/>
+      <c r="I119" s="2"/>
+    </row>
+    <row r="120" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D120" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="E120" s="16"/>
+      <c r="F120" s="16"/>
+      <c r="G120" s="16"/>
+      <c r="H120" s="16"/>
+      <c r="I120" s="2"/>
+    </row>
+    <row r="121" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="I121" s="2"/>
+    </row>
+    <row r="122" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C122" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="K96" s="14" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D97" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D98" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D99" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D100" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D101" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D102" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D103" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D105" s="10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B107" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C108" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="114" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="D114" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="116" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C116" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K116" s="14" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="117" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="D117" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="125" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="D125" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="127" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C127" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J127" s="14" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="128" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="D128" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="129" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="D129" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="131" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C131" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L131" s="14" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="132" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="D132" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="133" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="D133" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="135" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C135" s="2"/>
+      <c r="D122" s="16"/>
+      <c r="E122" s="16"/>
+      <c r="F122" s="16"/>
+      <c r="G122" s="16"/>
+      <c r="H122" s="16"/>
+      <c r="I122" s="12"/>
+      <c r="J122" s="16"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2498,383 +2243,258 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I60"/>
+  <dimension ref="A2:I39"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36" style="8" customWidth="1"/>
     <col min="2" max="7" width="8.875" style="2"/>
-    <col min="8" max="8" width="8.875" style="19"/>
+    <col min="8" max="8" width="8.875" style="17"/>
     <col min="9" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C3" s="20" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C3" s="18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C7" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C10" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C11" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C15" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C6" s="4" t="s">
+      <c r="C18" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="H6" s="19" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C10" s="4" t="s">
+      <c r="C19" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C22" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C25" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="13"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C26" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C27" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C28" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="15"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C31" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="12"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C34" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="17"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C35" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="17"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38" s="11" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C13" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C14" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C18" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C24" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="H24" s="19" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C27" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H27" s="19" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C28" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H28" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="I28" s="14" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C29" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H29" s="19" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C30" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H30" s="19" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C31" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H31" s="19" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C32" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H32" s="19" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C33" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H33" s="19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C36" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H36" s="19" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B38" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C39" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="H39" s="19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C42" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H42" s="19" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C43" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="H43" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="I43" s="14" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C44" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="H44" s="19" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C45" s="2" t="s">
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B39" s="12"/>
+      <c r="C39" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="H45" s="19" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H48" s="19" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B51" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B52" s="12"/>
-      <c r="C52" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="H52" s="19" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A54" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="B54" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="B55" s="12"/>
-      <c r="C55" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="H55" s="19" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B57" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B58" s="12"/>
-      <c r="C58" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="H58" s="19" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B60" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A53 A55:A1048576">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="2">
+  <phoneticPr fontId="10" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A19 A21:A1048576">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A1))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
-      <formula>LEN(TRIM(A54))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2891,8 +2511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="190" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2902,76 +2522,76 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C8" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C10" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C12" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
-        <v>123</v>
+      <c r="A15" s="14" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="14" t="s">
-        <v>152</v>
+      <c r="B16" s="13" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="A15">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A15))&gt;0</formula>
@@ -2991,7 +2611,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3003,174 +2623,174 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -3184,37 +2804,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9" style="21"/>
+    <col min="1" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="21" t="s">
-        <v>154</v>
+      <c r="B4" s="19" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C5" s="21" t="s">
-        <v>157</v>
+      <c r="C5" s="19" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="21" t="s">
-        <v>155</v>
+      <c r="B8" s="19" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C9" s="21" t="s">
-        <v>156</v>
+      <c r="C9" s="19" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/gd/音乐音效相关/UI音效内容设计.xlsx
+++ b/gd/音乐音效相关/UI音效内容设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8025"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8025" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="通用音效" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="音效资源" sheetId="4" r:id="rId4"/>
     <sheet name="任务拆分" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,38 +23,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="119">
   <si>
     <t>UI音效由通用音效与特殊音效组成</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>通用音效</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>通用按钮音效为 ConfirmNormal</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>通用页签</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>通用页签音效为 TabNormal</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>通用页签包括下列样式</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>通用按钮包括下列样式</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>图标音效</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -70,7 +70,7 @@
       </rPr>
       <t>ConfirmNormal</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -86,19 +86,19 @@
       </rPr>
       <t>D入口音效</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>通用关闭、取消类按钮</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>通用按钮包括下列样式</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>通用勾选框</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -114,27 +114,27 @@
       </rPr>
       <t>onfirmWeak</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>通用勾选框包括下列样式</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>通用关闭、取消类按钮音效为 ConfirmCancel</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>通用翻页按钮</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>通用翻页按钮包括下列样式</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>通用按钮</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -150,7 +150,7 @@
       </rPr>
       <t>I图标展开按钮</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -166,15 +166,15 @@
       </rPr>
       <t>RollingNormal</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>奖励类弹出窗口音效</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>通用下拉列表</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -190,31 +190,31 @@
       </rPr>
       <t>ConfirmWeak</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>通用下拉列表包括下列样式</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>角色升级</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>合成</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>分解</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>音效名称</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>是否有资源</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>ConfirmWeak</t>
@@ -268,81 +268,78 @@
     <t>Entermusic</t>
   </si>
   <si>
+    <t>DefeatMusic</t>
+  </si>
+  <si>
+    <t>UpLevel</t>
+  </si>
+  <si>
+    <t>主场景</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本章节场景</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵容选择界面</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局中</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个副本单独配置</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算（胜利）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算（失败）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽蛋</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得金币</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物合成</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物相关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算相关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵容选择相关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会相关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱相关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括各类奖励弹出框（任务、签到等）、扫荡界面、抽蛋、开宝箱、章节奖励</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
     <t>VictoryMusic</t>
-  </si>
-  <si>
-    <t>DefeatMusic</t>
-  </si>
-  <si>
-    <t>UpLevel</t>
-  </si>
-  <si>
-    <t>主场景</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本章节场景</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>阵容选择界面</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>对局中</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>每个副本单独配置</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>结算（胜利）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>结算（失败）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽蛋</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得金币</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物合成</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物相关</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>结算相关</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>阵容选择相关</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>公会相关</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱相关</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>包括各类奖励弹出框（任务、签到等）、扫荡界面、抽蛋、开宝箱、章节奖励</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>VictoryMusic</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>分解装备时播放的音效为 Normal（暂定）</t>
@@ -352,11 +349,11 @@
   </si>
   <si>
     <t>Normal</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -372,50 +369,50 @@
       </rPr>
       <t>ageturn</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>如果点击按钮是打开一个界面，是不是打开界面没有音效，只有按钮音效</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>如果点击按钮是出现弹窗，就等于会有两个音效</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>点列表选项还有音效么</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>过程播放的音效还是成功的音效</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>有些地方不太需要这个音效，例如签到、副本结算等等</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>一个音效吧</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>签到应该还是需要吧，结算好像不需要</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>对，除非有界面特殊需求音效</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>签到界面</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>收取邮件时播放的音效为 Normal（暂定）</t>
   </si>
   <si>
     <t>碎片合成宠物弹出界面时播放的音效为 Normal（暂定）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>章节场景和阵容选择没切场景吧，能分两个么？</t>
@@ -458,51 +455,51 @@
     <rPh sb="19" eb="20">
       <t>me</t>
     </rPh>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">是的 </t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>有的</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>列表项音效为 ConfirmNormal</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>能做到</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>弹出升级界面后，播放升级特效时播放的音效为 Uplevel</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>程序</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>策划</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>暂时不能预估时间..</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>1D</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>点击3D入口时（如通天塔模型）播放的音效为 Normal（暂定）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>点击3D入口子入口时（如不同难度的塔）播放的音效为 Normal（暂定）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -518,27 +515,27 @@
       </rPr>
       <t>CongratWindow</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>合成材料播放特效时伴随音效为 Normal（暂定）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>合成宝石播放特效时伴随音效为 Normal（暂定）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>金币抽蛋时播放特效时伴随音效为 Normal（暂定）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>钻石抽蛋时播放特效时伴随音效为 Normal（暂定）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>其他音效</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -554,7 +551,7 @@
       </rPr>
       <t>Confirmcash</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -570,43 +567,43 @@
       </rPr>
       <t>Confirmcash</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面中宠物升级时播放的音效为 Normal（暂定）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>宠物技能升级时播放特效时伴随音效 Normal（暂定）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>宠物装备强化成功时播放特效时伴随音效为 Normal（暂定）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>宠物进阶时播放特效时伴随音效为 Normal（暂定）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>结算的星级动画中每出现一个星时播放特效时伴随音效为Starsound</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>点击公会许愿按钮时播放的音效为 Normal（暂定）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>点击领取公会贡献值宝箱时播放的音效为 Normal（暂定）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>签到成功时播放特效时伴随音效为 Normal（暂定）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>点击宠物图标时（上阵/下阵）播放的音效为 Normal（暂定）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -622,7 +619,7 @@
       </rPr>
       <t>Normal（暂定）</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -648,20 +645,125 @@
       </rPr>
       <t xml:space="preserve"> ConfirmNormal</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>oading界面</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loginmusic</t>
+  </si>
+  <si>
+    <t>结算（平局）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>rawmusic</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Defeat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>usic</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Victory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>usic</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -789,38 +891,41 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -1819,8 +1924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="C122" sqref="C122"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1856,22 +1961,22 @@
     </row>
     <row r="8" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.3">
@@ -1952,7 +2057,7 @@
     <row r="40" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C40" s="2"/>
       <c r="D40" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.3">
@@ -2025,13 +2130,13 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D81" s="2"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D82" s="2"/>
     </row>
@@ -2049,7 +2154,7 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D89" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E89" s="16"/>
       <c r="F89" s="16"/>
@@ -2074,7 +2179,7 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D96" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E96" s="16"/>
       <c r="F96" s="16"/>
@@ -2085,7 +2190,7 @@
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D97" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E97" s="16"/>
       <c r="F97" s="16"/>
@@ -2099,7 +2204,7 @@
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B99" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.3">
@@ -2119,12 +2224,12 @@
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D109" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D110" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E110" s="16"/>
       <c r="F110" s="16"/>
@@ -2142,7 +2247,7 @@
     </row>
     <row r="114" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C114" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -2155,7 +2260,7 @@
     <row r="115" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C115" s="2"/>
       <c r="D115" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E115" s="12"/>
       <c r="F115" s="12"/>
@@ -2179,7 +2284,7 @@
     </row>
     <row r="118" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C118" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -2191,7 +2296,7 @@
     <row r="119" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C119" s="2"/>
       <c r="D119" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E119" s="12"/>
       <c r="F119" s="12"/>
@@ -2201,7 +2306,7 @@
     </row>
     <row r="120" spans="3:10" x14ac:dyDescent="0.3">
       <c r="D120" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E120" s="16"/>
       <c r="F120" s="16"/>
@@ -2214,7 +2319,7 @@
     </row>
     <row r="122" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C122" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D122" s="16"/>
       <c r="E122" s="16"/>
@@ -2225,7 +2330,7 @@
       <c r="J122" s="16"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="notContainsBlanks" dxfId="2" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
@@ -2264,12 +2369,12 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C3" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>26</v>
@@ -2277,10 +2382,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -2289,7 +2394,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C7" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
@@ -2303,28 +2408,28 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C10" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C11" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
@@ -2333,7 +2438,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C15" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -2342,15 +2447,15 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
@@ -2359,10 +2464,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
@@ -2374,22 +2479,22 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C22" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C25" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
@@ -2400,7 +2505,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C26" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
@@ -2410,7 +2515,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C27" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
@@ -2420,7 +2525,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C28" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
@@ -2430,12 +2535,12 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C31" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
@@ -2446,12 +2551,12 @@
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C34" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
@@ -2462,7 +2567,7 @@
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C35" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
@@ -2473,7 +2578,7 @@
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
@@ -2483,7 +2588,7 @@
     <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="12"/>
       <c r="C39" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
@@ -2491,7 +2596,7 @@
       <c r="G39" s="12"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="A1:A19 A21:A1048576">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A1))&gt;0</formula>
@@ -2509,10 +2614,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="190" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="190" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2520,81 +2625,105 @@
     <col min="1" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C8" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C8" s="2" t="s">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C10" s="23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C10" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C12" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="13" t="s">
-        <v>87</v>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C12" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="12"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="12"/>
+      <c r="C14" s="24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="12"/>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="12"/>
+      <c r="C16" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="13" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <conditionalFormatting sqref="A15">
+  <phoneticPr fontId="12" type="noConversion"/>
+  <conditionalFormatting sqref="A20">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A15))&gt;0</formula>
+      <formula>LEN(TRIM(A20))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2759,7 +2888,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>31</v>
@@ -2767,7 +2896,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>31</v>
@@ -2775,7 +2904,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>31</v>
@@ -2783,14 +2912,14 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>70</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -2815,26 +2944,26 @@
   <sheetData>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C5" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C9" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
